--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Pizza_Sales.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Pizza_Sales.xlsx
@@ -1,52 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25904"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Author Drive (E. Ruiz)\Excel Statistics\Course Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9EB38A8B-0F21-4568-BC95-BD415DD06A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82500B8D-AB88-EA45-A7D8-FDC5AEB2A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orders!$A$1:$C$359</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">orders!$C$5:$C$359</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">orders!$B$2:$B$359</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">orders!$B$2:$B$359</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">orders!$C$5:$C$358</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">orders!$C$5:$C$359</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">orders!$C$5:$C$359</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">orders!$B$5:$B$359</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">orders!$C$5:$C$359</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">orders!$B$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">orders!$A$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">orders!$B$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">orders!$A$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">orders!$B$2:$B$359</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">orders!$B$2:$B$359</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">orders!$B$2:$B$359</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">orders!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">orders!$C$2:$C$359</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">orders!$B$2:$B$359</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="29" r:id="rId2"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -77,15 +110,109 @@
   <si>
     <t>Sunday</t>
   </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Pizza Sales </t>
+  </si>
+  <si>
+    <t>Day of Week</t>
+  </si>
+  <si>
+    <t>Min:</t>
+  </si>
+  <si>
+    <t>Q1:</t>
+  </si>
+  <si>
+    <t>Median:</t>
+  </si>
+  <si>
+    <t>Q3:</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>IQR:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation:</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Count of Pizzas</t>
+  </si>
+  <si>
+    <t>75-84</t>
+  </si>
+  <si>
+    <t>85-94</t>
+  </si>
+  <si>
+    <t>95-104</t>
+  </si>
+  <si>
+    <t>105-114</t>
+  </si>
+  <si>
+    <t>115-124</t>
+  </si>
+  <si>
+    <t>125-134</t>
+  </si>
+  <si>
+    <t>135-144</t>
+  </si>
+  <si>
+    <t>145-154</t>
+  </si>
+  <si>
+    <t>155-164</t>
+  </si>
+  <si>
+    <t>165-174</t>
+  </si>
+  <si>
+    <t>175-184</t>
+  </si>
+  <si>
+    <t>185-194</t>
+  </si>
+  <si>
+    <t>195-204</t>
+  </si>
+  <si>
+    <t>205-214</t>
+  </si>
+  <si>
+    <t>225-234</t>
+  </si>
+  <si>
+    <t>255-264</t>
+  </si>
+  <si>
+    <t>265-274</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +349,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +664,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,10 +718,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -623,7 +780,86 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,8 +872,5077 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pizza_Sales.xlsx]orders!PivotTable5</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pizza Sales per Day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>orders!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>orders!$E$3:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orders!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>164.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.09615384615384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.80769230769232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.10416666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.57692307692307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132.59615384615384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.05769230769231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2405-0E48-BEC6-61C7E223F613}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2101415520"/>
+        <c:axId val="2102233712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2101415520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102233712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102233712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101415520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pizza_Sales.xlsx]orders!PivotTable6</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>orders!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>orders!$Q$3:$Q$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>75-84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85-94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95-104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105-114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115-124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125-134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135-144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145-154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155-164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165-174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175-184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185-194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195-204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205-214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225-234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255-264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>265-274</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orders!$R$3:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B49-984C-AEE0-85E1FA13E6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2075267088"/>
+        <c:axId val="2138443440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2075267088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138443440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138443440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075267088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A0BF6424-BEFD-334C-93DC-31F7EA157907}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Pizzas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="275" min="75"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Sales</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Sales</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28241FA4-0299-C280-C88A-5D701CB56F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1958458-F9F3-670C-E92A-28FFCAECE9FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5302250" y="6642100"/>
+              <a:ext cx="7512050" cy="4368800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BBD5B5-EC22-1676-AFA0-887EE5569B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jorge Soto" refreshedDate="44982.476671990742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="358" xr:uid="{DA99A40F-35E2-814C-8791-D508F6C35974}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C359" sheet="orders"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Date" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-01-01T00:00:00" maxDate="2016-01-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Weekday" numFmtId="164">
+      <sharedItems count="7">
+        <s v="Thursday"/>
+        <s v="Friday"/>
+        <s v="Saturday"/>
+        <s v="Sunday"/>
+        <s v="Monday"/>
+        <s v="Tuesday"/>
+        <s v="Wednesday"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Pizzas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="266" count="96">
+        <n v="162"/>
+        <n v="165"/>
+        <n v="158"/>
+        <n v="106"/>
+        <n v="125"/>
+        <n v="147"/>
+        <n v="138"/>
+        <n v="173"/>
+        <n v="127"/>
+        <n v="146"/>
+        <n v="116"/>
+        <n v="119"/>
+        <n v="120"/>
+        <n v="150"/>
+        <n v="123"/>
+        <n v="122"/>
+        <n v="142"/>
+        <n v="143"/>
+        <n v="129"/>
+        <n v="152"/>
+        <n v="102"/>
+        <n v="113"/>
+        <n v="151"/>
+        <n v="118"/>
+        <n v="145"/>
+        <n v="191"/>
+        <n v="159"/>
+        <n v="133"/>
+        <n v="153"/>
+        <n v="136"/>
+        <n v="124"/>
+        <n v="155"/>
+        <n v="130"/>
+        <n v="163"/>
+        <n v="140"/>
+        <n v="128"/>
+        <n v="175"/>
+        <n v="97"/>
+        <n v="134"/>
+        <n v="144"/>
+        <n v="154"/>
+        <n v="99"/>
+        <n v="139"/>
+        <n v="137"/>
+        <n v="135"/>
+        <n v="176"/>
+        <n v="131"/>
+        <n v="141"/>
+        <n v="179"/>
+        <n v="149"/>
+        <n v="77"/>
+        <n v="115"/>
+        <n v="167"/>
+        <n v="132"/>
+        <n v="161"/>
+        <n v="170"/>
+        <n v="117"/>
+        <n v="157"/>
+        <n v="126"/>
+        <n v="95"/>
+        <n v="111"/>
+        <n v="107"/>
+        <n v="114"/>
+        <n v="181"/>
+        <n v="164"/>
+        <n v="208"/>
+        <n v="109"/>
+        <n v="148"/>
+        <n v="121"/>
+        <n v="108"/>
+        <n v="184"/>
+        <n v="213"/>
+        <n v="234"/>
+        <n v="96"/>
+        <n v="187"/>
+        <n v="196"/>
+        <n v="112"/>
+        <n v="188"/>
+        <n v="105"/>
+        <n v="94"/>
+        <n v="92"/>
+        <n v="156"/>
+        <n v="194"/>
+        <n v="262"/>
+        <n v="160"/>
+        <n v="104"/>
+        <n v="166"/>
+        <n v="190"/>
+        <n v="84"/>
+        <n v="266"/>
+        <n v="264"/>
+        <n v="110"/>
+        <n v="89"/>
+        <n v="80"/>
+        <n v="82"/>
+        <n v="178"/>
+      </sharedItems>
+      <fieldGroup base="2">
+        <rangePr autoStart="0" autoEnd="0" startNum="75" endNum="270" groupInterval="10"/>
+        <groupItems count="22">
+          <s v="&lt;75"/>
+          <s v="75-84"/>
+          <s v="85-94"/>
+          <s v="95-104"/>
+          <s v="105-114"/>
+          <s v="115-124"/>
+          <s v="125-134"/>
+          <s v="135-144"/>
+          <s v="145-154"/>
+          <s v="155-164"/>
+          <s v="165-174"/>
+          <s v="175-184"/>
+          <s v="185-194"/>
+          <s v="195-204"/>
+          <s v="205-214"/>
+          <s v="215-224"/>
+          <s v="225-234"/>
+          <s v="235-244"/>
+          <s v="245-254"/>
+          <s v="255-264"/>
+          <s v="265-274"/>
+          <s v="&gt;275"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="358">
+  <r>
+    <d v="2015-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2015-01-02T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2015-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-01-04T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2015-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-01-06T00:00:00"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-01-07T00:00:00"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-01-08T00:00:00"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2015-01-09T00:00:00"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2015-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2015-01-11T00:00:00"/>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2015-01-12T00:00:00"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-01-13T00:00:00"/>
+    <x v="5"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2015-01-14T00:00:00"/>
+    <x v="6"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2015-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-01-16T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-01-17T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-01-18T00:00:00"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2015-01-19T00:00:00"/>
+    <x v="4"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-01-20T00:00:00"/>
+    <x v="5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2015-01-21T00:00:00"/>
+    <x v="6"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2015-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-01-23T00:00:00"/>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2015-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-01-25T00:00:00"/>
+    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2015-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2015-01-27T00:00:00"/>
+    <x v="5"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <d v="2015-01-28T00:00:00"/>
+    <x v="6"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-01-30T00:00:00"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-01-31T00:00:00"/>
+    <x v="2"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <d v="2015-02-01T00:00:00"/>
+    <x v="3"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2015-02-02T00:00:00"/>
+    <x v="4"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <d v="2015-02-03T00:00:00"/>
+    <x v="5"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2015-02-04T00:00:00"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-02-05T00:00:00"/>
+    <x v="0"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-02-06T00:00:00"/>
+    <x v="1"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-02-07T00:00:00"/>
+    <x v="2"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-02-08T00:00:00"/>
+    <x v="3"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-02-09T00:00:00"/>
+    <x v="4"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-02-10T00:00:00"/>
+    <x v="5"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-02-11T00:00:00"/>
+    <x v="6"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <d v="2015-02-12T00:00:00"/>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-02-13T00:00:00"/>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-02-14T00:00:00"/>
+    <x v="2"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-02-15T00:00:00"/>
+    <x v="3"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-02-16T00:00:00"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-02-17T00:00:00"/>
+    <x v="5"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2015-02-18T00:00:00"/>
+    <x v="6"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-02-19T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-02-20T00:00:00"/>
+    <x v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2015-02-21T00:00:00"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2015-02-22T00:00:00"/>
+    <x v="3"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <d v="2015-02-23T00:00:00"/>
+    <x v="4"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-02-24T00:00:00"/>
+    <x v="5"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-02-25T00:00:00"/>
+    <x v="6"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-02-26T00:00:00"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-02-27T00:00:00"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2015-02-28T00:00:00"/>
+    <x v="2"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-03-01T00:00:00"/>
+    <x v="3"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <d v="2015-03-02T00:00:00"/>
+    <x v="4"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-03-03T00:00:00"/>
+    <x v="5"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-03-04T00:00:00"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-03-05T00:00:00"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-03-06T00:00:00"/>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2015-03-07T00:00:00"/>
+    <x v="2"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-03-08T00:00:00"/>
+    <x v="3"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2015-03-09T00:00:00"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-03-10T00:00:00"/>
+    <x v="5"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-03-11T00:00:00"/>
+    <x v="6"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-03-12T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-03-13T00:00:00"/>
+    <x v="1"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <d v="2015-03-14T00:00:00"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-03-15T00:00:00"/>
+    <x v="3"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-03-16T00:00:00"/>
+    <x v="4"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-03-17T00:00:00"/>
+    <x v="5"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2015-03-18T00:00:00"/>
+    <x v="6"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-03-19T00:00:00"/>
+    <x v="0"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-03-20T00:00:00"/>
+    <x v="1"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2015-03-21T00:00:00"/>
+    <x v="2"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-03-22T00:00:00"/>
+    <x v="3"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <d v="2015-03-23T00:00:00"/>
+    <x v="4"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2015-03-24T00:00:00"/>
+    <x v="5"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-03-25T00:00:00"/>
+    <x v="6"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2015-03-26T00:00:00"/>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-03-27T00:00:00"/>
+    <x v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2015-03-28T00:00:00"/>
+    <x v="2"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-03-29T00:00:00"/>
+    <x v="3"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-03-30T00:00:00"/>
+    <x v="4"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-03-31T00:00:00"/>
+    <x v="5"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2015-04-01T00:00:00"/>
+    <x v="6"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2015-04-02T00:00:00"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2015-04-03T00:00:00"/>
+    <x v="1"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <d v="2015-04-04T00:00:00"/>
+    <x v="2"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <d v="2015-04-05T00:00:00"/>
+    <x v="3"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2015-04-06T00:00:00"/>
+    <x v="4"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <d v="2015-04-07T00:00:00"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-04-08T00:00:00"/>
+    <x v="6"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-04-09T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2015-04-10T00:00:00"/>
+    <x v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-04-11T00:00:00"/>
+    <x v="2"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-04-12T00:00:00"/>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2015-04-13T00:00:00"/>
+    <x v="4"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-04-14T00:00:00"/>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2015-04-15T00:00:00"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-04-16T00:00:00"/>
+    <x v="0"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-04-17T00:00:00"/>
+    <x v="1"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2015-04-18T00:00:00"/>
+    <x v="2"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-04-19T00:00:00"/>
+    <x v="3"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <d v="2015-04-20T00:00:00"/>
+    <x v="4"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <d v="2015-04-21T00:00:00"/>
+    <x v="5"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-04-22T00:00:00"/>
+    <x v="6"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-04-23T00:00:00"/>
+    <x v="0"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-04-24T00:00:00"/>
+    <x v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2015-04-25T00:00:00"/>
+    <x v="2"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-04-26T00:00:00"/>
+    <x v="3"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <d v="2015-04-27T00:00:00"/>
+    <x v="4"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-04-28T00:00:00"/>
+    <x v="5"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <d v="2015-04-29T00:00:00"/>
+    <x v="6"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <d v="2015-04-30T00:00:00"/>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-05-01T00:00:00"/>
+    <x v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-05-02T00:00:00"/>
+    <x v="2"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2015-05-03T00:00:00"/>
+    <x v="3"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2015-05-04T00:00:00"/>
+    <x v="4"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-05-05T00:00:00"/>
+    <x v="5"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <x v="6"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-05-07T00:00:00"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-05-08T00:00:00"/>
+    <x v="1"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <d v="2015-05-09T00:00:00"/>
+    <x v="2"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-05-10T00:00:00"/>
+    <x v="3"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-05-11T00:00:00"/>
+    <x v="4"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-05-12T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-05-13T00:00:00"/>
+    <x v="6"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-05-14T00:00:00"/>
+    <x v="0"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <d v="2015-05-15T00:00:00"/>
+    <x v="1"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <d v="2015-05-16T00:00:00"/>
+    <x v="2"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-05-17T00:00:00"/>
+    <x v="3"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <d v="2015-05-18T00:00:00"/>
+    <x v="4"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-05-19T00:00:00"/>
+    <x v="5"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-05-20T00:00:00"/>
+    <x v="6"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-05-21T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-05-22T00:00:00"/>
+    <x v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-05-23T00:00:00"/>
+    <x v="2"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-05-24T00:00:00"/>
+    <x v="3"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-05-25T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-05-26T00:00:00"/>
+    <x v="5"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2015-05-27T00:00:00"/>
+    <x v="6"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-05-28T00:00:00"/>
+    <x v="0"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <d v="2015-05-29T00:00:00"/>
+    <x v="1"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <d v="2015-05-30T00:00:00"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2015-05-31T00:00:00"/>
+    <x v="3"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <d v="2015-06-01T00:00:00"/>
+    <x v="4"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <d v="2015-06-02T00:00:00"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-06-03T00:00:00"/>
+    <x v="6"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2015-06-04T00:00:00"/>
+    <x v="0"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-06-05T00:00:00"/>
+    <x v="1"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2015-06-06T00:00:00"/>
+    <x v="2"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-06-07T00:00:00"/>
+    <x v="3"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2015-06-08T00:00:00"/>
+    <x v="4"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-06-09T00:00:00"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-06-10T00:00:00"/>
+    <x v="6"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-06-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-06-12T00:00:00"/>
+    <x v="1"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-06-13T00:00:00"/>
+    <x v="2"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-06-14T00:00:00"/>
+    <x v="3"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2015-06-15T00:00:00"/>
+    <x v="4"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2015-06-16T00:00:00"/>
+    <x v="5"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2015-06-17T00:00:00"/>
+    <x v="6"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-06-18T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2015-06-19T00:00:00"/>
+    <x v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2015-06-20T00:00:00"/>
+    <x v="2"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-06-21T00:00:00"/>
+    <x v="3"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2015-06-22T00:00:00"/>
+    <x v="4"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-06-23T00:00:00"/>
+    <x v="5"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-06-24T00:00:00"/>
+    <x v="6"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-06-25T00:00:00"/>
+    <x v="0"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-06-26T00:00:00"/>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-06-27T00:00:00"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2015-06-28T00:00:00"/>
+    <x v="3"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <d v="2015-06-29T00:00:00"/>
+    <x v="4"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-06-30T00:00:00"/>
+    <x v="5"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-07-01T00:00:00"/>
+    <x v="6"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-07-02T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-07-03T00:00:00"/>
+    <x v="1"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <d v="2015-07-04T00:00:00"/>
+    <x v="2"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <d v="2015-07-05T00:00:00"/>
+    <x v="3"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <d v="2015-07-06T00:00:00"/>
+    <x v="4"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-07-07T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-07-08T00:00:00"/>
+    <x v="6"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-07-09T00:00:00"/>
+    <x v="0"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2015-07-10T00:00:00"/>
+    <x v="1"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-07-11T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-07-12T00:00:00"/>
+    <x v="3"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-07-13T00:00:00"/>
+    <x v="4"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-07-14T00:00:00"/>
+    <x v="5"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-07-15T00:00:00"/>
+    <x v="6"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-07-16T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2015-07-17T00:00:00"/>
+    <x v="1"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <d v="2015-07-18T00:00:00"/>
+    <x v="2"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-07-19T00:00:00"/>
+    <x v="3"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <d v="2015-07-20T00:00:00"/>
+    <x v="4"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2015-07-21T00:00:00"/>
+    <x v="5"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-07-22T00:00:00"/>
+    <x v="6"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-07-23T00:00:00"/>
+    <x v="0"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-07-24T00:00:00"/>
+    <x v="1"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <d v="2015-07-25T00:00:00"/>
+    <x v="2"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2015-07-26T00:00:00"/>
+    <x v="3"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <d v="2015-07-27T00:00:00"/>
+    <x v="4"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2015-07-28T00:00:00"/>
+    <x v="5"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-07-29T00:00:00"/>
+    <x v="6"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2015-07-30T00:00:00"/>
+    <x v="0"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2015-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-08-01T00:00:00"/>
+    <x v="2"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-08-02T00:00:00"/>
+    <x v="3"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2015-08-03T00:00:00"/>
+    <x v="4"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2015-08-04T00:00:00"/>
+    <x v="5"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2015-08-05T00:00:00"/>
+    <x v="6"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-08-06T00:00:00"/>
+    <x v="0"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-08-07T00:00:00"/>
+    <x v="1"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2015-08-08T00:00:00"/>
+    <x v="2"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2015-08-09T00:00:00"/>
+    <x v="3"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-08-10T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-08-11T00:00:00"/>
+    <x v="5"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2015-08-12T00:00:00"/>
+    <x v="6"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-08-13T00:00:00"/>
+    <x v="0"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-08-14T00:00:00"/>
+    <x v="1"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <d v="2015-08-15T00:00:00"/>
+    <x v="2"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-08-16T00:00:00"/>
+    <x v="3"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-08-17T00:00:00"/>
+    <x v="4"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2015-08-18T00:00:00"/>
+    <x v="5"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-08-19T00:00:00"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-08-20T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2015-08-21T00:00:00"/>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-08-22T00:00:00"/>
+    <x v="2"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-08-23T00:00:00"/>
+    <x v="3"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <d v="2015-08-24T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2015-08-25T00:00:00"/>
+    <x v="5"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2015-08-26T00:00:00"/>
+    <x v="6"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-08-28T00:00:00"/>
+    <x v="1"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2015-08-29T00:00:00"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2015-08-30T00:00:00"/>
+    <x v="3"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <d v="2015-08-31T00:00:00"/>
+    <x v="4"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-09-01T00:00:00"/>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2015-09-02T00:00:00"/>
+    <x v="6"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <d v="2015-09-03T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-09-04T00:00:00"/>
+    <x v="1"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2015-09-05T00:00:00"/>
+    <x v="2"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-09-06T00:00:00"/>
+    <x v="3"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <d v="2015-09-07T00:00:00"/>
+    <x v="4"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-09-08T00:00:00"/>
+    <x v="5"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-09-09T00:00:00"/>
+    <x v="6"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <d v="2015-09-10T00:00:00"/>
+    <x v="0"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-09-11T00:00:00"/>
+    <x v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2015-09-12T00:00:00"/>
+    <x v="2"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <d v="2015-09-13T00:00:00"/>
+    <x v="3"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <d v="2015-09-14T00:00:00"/>
+    <x v="4"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2015-09-15T00:00:00"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2015-09-16T00:00:00"/>
+    <x v="6"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-09-17T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-09-18T00:00:00"/>
+    <x v="1"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <d v="2015-09-19T00:00:00"/>
+    <x v="2"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-09-20T00:00:00"/>
+    <x v="3"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <d v="2015-09-21T00:00:00"/>
+    <x v="4"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-09-22T00:00:00"/>
+    <x v="5"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-09-23T00:00:00"/>
+    <x v="6"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-09-26T00:00:00"/>
+    <x v="2"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-09-27T00:00:00"/>
+    <x v="3"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-09-28T00:00:00"/>
+    <x v="4"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <d v="2015-09-29T00:00:00"/>
+    <x v="5"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2015-09-30T00:00:00"/>
+    <x v="6"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <d v="2015-10-02T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2015-10-03T00:00:00"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-10-04T00:00:00"/>
+    <x v="3"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2015-10-06T00:00:00"/>
+    <x v="5"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-10-07T00:00:00"/>
+    <x v="6"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-10-08T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2015-10-09T00:00:00"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2015-10-10T00:00:00"/>
+    <x v="2"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-10-11T00:00:00"/>
+    <x v="3"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-10-13T00:00:00"/>
+    <x v="5"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-10-14T00:00:00"/>
+    <x v="6"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-10-15T00:00:00"/>
+    <x v="0"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <d v="2015-10-16T00:00:00"/>
+    <x v="1"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-10-17T00:00:00"/>
+    <x v="2"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2015-10-18T00:00:00"/>
+    <x v="3"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <d v="2015-10-20T00:00:00"/>
+    <x v="5"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-10-21T00:00:00"/>
+    <x v="6"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2015-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <d v="2015-10-23T00:00:00"/>
+    <x v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2015-10-24T00:00:00"/>
+    <x v="2"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <d v="2015-10-25T00:00:00"/>
+    <x v="3"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2015-10-27T00:00:00"/>
+    <x v="5"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2015-10-28T00:00:00"/>
+    <x v="6"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <d v="2015-10-29T00:00:00"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-10-30T00:00:00"/>
+    <x v="1"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <d v="2015-10-31T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2015-11-01T00:00:00"/>
+    <x v="3"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-11-02T00:00:00"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2015-11-03T00:00:00"/>
+    <x v="5"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2015-11-04T00:00:00"/>
+    <x v="6"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <d v="2015-11-05T00:00:00"/>
+    <x v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-11-06T00:00:00"/>
+    <x v="1"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <d v="2015-11-07T00:00:00"/>
+    <x v="2"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <d v="2015-11-08T00:00:00"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2015-11-09T00:00:00"/>
+    <x v="4"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <d v="2015-11-10T00:00:00"/>
+    <x v="5"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2015-11-11T00:00:00"/>
+    <x v="6"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-11-12T00:00:00"/>
+    <x v="0"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2015-11-13T00:00:00"/>
+    <x v="1"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2015-11-14T00:00:00"/>
+    <x v="2"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2015-11-15T00:00:00"/>
+    <x v="3"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2015-11-16T00:00:00"/>
+    <x v="4"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-11-17T00:00:00"/>
+    <x v="5"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2015-11-18T00:00:00"/>
+    <x v="6"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-11-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2015-11-20T00:00:00"/>
+    <x v="1"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-11-21T00:00:00"/>
+    <x v="2"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-11-22T00:00:00"/>
+    <x v="3"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <d v="2015-11-23T00:00:00"/>
+    <x v="4"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2015-11-24T00:00:00"/>
+    <x v="5"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-11-25T00:00:00"/>
+    <x v="6"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-11-26T00:00:00"/>
+    <x v="0"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <d v="2015-11-27T00:00:00"/>
+    <x v="1"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <d v="2015-11-28T00:00:00"/>
+    <x v="2"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-11-29T00:00:00"/>
+    <x v="3"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2015-11-30T00:00:00"/>
+    <x v="4"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-12-01T00:00:00"/>
+    <x v="5"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-12-02T00:00:00"/>
+    <x v="6"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2015-12-03T00:00:00"/>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2015-12-04T00:00:00"/>
+    <x v="1"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <d v="2015-12-05T00:00:00"/>
+    <x v="2"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <x v="3"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2015-12-07T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2015-12-08T00:00:00"/>
+    <x v="5"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <d v="2015-12-09T00:00:00"/>
+    <x v="6"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <d v="2015-12-10T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2015-12-11T00:00:00"/>
+    <x v="1"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <d v="2015-12-12T00:00:00"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2015-12-13T00:00:00"/>
+    <x v="3"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-12-14T00:00:00"/>
+    <x v="4"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-12-15T00:00:00"/>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2015-12-16T00:00:00"/>
+    <x v="6"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2015-12-17T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2015-12-18T00:00:00"/>
+    <x v="1"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <d v="2015-12-19T00:00:00"/>
+    <x v="2"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2015-12-20T00:00:00"/>
+    <x v="3"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2015-12-21T00:00:00"/>
+    <x v="4"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2015-12-22T00:00:00"/>
+    <x v="5"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2015-12-23T00:00:00"/>
+    <x v="6"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2015-12-24T00:00:00"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2015-12-26T00:00:00"/>
+    <x v="2"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <d v="2015-12-27T00:00:00"/>
+    <x v="3"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <d v="2015-12-28T00:00:00"/>
+    <x v="4"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2015-12-29T00:00:00"/>
+    <x v="5"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <d v="2015-12-30T00:00:00"/>
+    <x v="6"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <d v="2015-12-31T00:00:00"/>
+    <x v="0"/>
+    <x v="95"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA94F1EA-3629-C14A-ADEC-75CD8B7E2758}" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Day of Week">
+  <location ref="Q2:R20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Pizzas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="17">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96DB2E56-E88A-B649-828D-045E94B55372}" name="PivotTable5" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Day of Week">
+  <location ref="E2:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="8">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average Pizza Sales " fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,24 +6230,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C359"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -963,8 +6275,20 @@
       <c r="C2">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42006</v>
       </c>
@@ -974,8 +6298,20 @@
       <c r="C3">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>164.84</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42007</v>
       </c>
@@ -985,8 +6321,20 @@
       <c r="C4">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>144.09615384615384</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42008</v>
       </c>
@@ -996,8 +6344,20 @@
       <c r="C5">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>143.80769230769232</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42009</v>
       </c>
@@ -1007,8 +6367,20 @@
       <c r="C6">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>135.10416666666666</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42010</v>
       </c>
@@ -1018,8 +6390,20 @@
       <c r="C7">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>133.57692307692307</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42011</v>
       </c>
@@ -1029,8 +6413,20 @@
       <c r="C8">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>132.59615384615384</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42012</v>
       </c>
@@ -1040,8 +6436,20 @@
       <c r="C9">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>116.05769230769231</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42013</v>
       </c>
@@ -1051,8 +6459,20 @@
       <c r="C10">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>138.47486033519553</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42014</v>
       </c>
@@ -1062,8 +6482,14 @@
       <c r="C11">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42015</v>
       </c>
@@ -1073,8 +6499,14 @@
       <c r="C12">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42016</v>
       </c>
@@ -1084,8 +6516,14 @@
       <c r="C13">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42017</v>
       </c>
@@ -1095,8 +6533,14 @@
       <c r="C14">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42018</v>
       </c>
@@ -1106,8 +6550,14 @@
       <c r="C15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42019</v>
       </c>
@@ -1117,8 +6567,14 @@
       <c r="C16">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42020</v>
       </c>
@@ -1128,8 +6584,14 @@
       <c r="C17">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42021</v>
       </c>
@@ -1139,8 +6601,14 @@
       <c r="C18">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42022</v>
       </c>
@@ -1150,8 +6618,14 @@
       <c r="C19">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42023</v>
       </c>
@@ -1161,8 +6635,14 @@
       <c r="C20">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42024</v>
       </c>
@@ -1173,7 +6653,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42025</v>
       </c>
@@ -1184,7 +6664,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42026</v>
       </c>
@@ -1195,7 +6675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42027</v>
       </c>
@@ -1206,7 +6686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42028</v>
       </c>
@@ -1216,8 +6696,32 @@
       <c r="C25">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42029</v>
       </c>
@@ -1227,8 +6731,43 @@
       <c r="C26">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">MIN(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
+        <v>102</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">MIN(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
+        <v>80</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">MIN(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
+        <v>82</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">MIN(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
+        <v>113</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">MIN(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
+        <v>125</v>
+      </c>
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">MIN(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
+        <v>95</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">MIN(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
+        <v>77</v>
+      </c>
+      <c r="O26" s="9" cm="1">
+        <f t="array" ref="O26:O30">_xlfn.QUARTILE.INC(C2:C359,_xlfn.SEQUENCE(5,,0,1))</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42030</v>
       </c>
@@ -1238,8 +6777,43 @@
       <c r="C27">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=H25,$C$2:$C$359),1)</f>
+        <v>125.75</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I25,$C$2:$C$359),1)</f>
+        <v>119.75</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J25,$C$2:$C$359),1)</f>
+        <v>125.5</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K25,$C$2:$C$359),1)</f>
+        <v>125.5</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L25,$C$2:$C$359),1)</f>
+        <v>152.25</v>
+      </c>
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M25,$C$2:$C$359),1)</f>
+        <v>135.75</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N25,$C$2:$C$359),1)</f>
+        <v>105.75</v>
+      </c>
+      <c r="O27" s="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42031</v>
       </c>
@@ -1249,8 +6823,43 @@
       <c r="C28">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6" cm="1">
+        <f t="array" ref="H28">MEDIAN(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
+        <v>135.5</v>
+      </c>
+      <c r="I28" s="6" cm="1">
+        <f t="array" ref="I28">MEDIAN(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
+        <v>131.5</v>
+      </c>
+      <c r="J28" s="6" cm="1">
+        <f t="array" ref="J28">MEDIAN(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
+        <v>134.5</v>
+      </c>
+      <c r="K28" s="6" cm="1">
+        <f t="array" ref="K28">MEDIAN(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
+        <v>137.5</v>
+      </c>
+      <c r="L28" s="6" cm="1">
+        <f t="array" ref="L28">MEDIAN(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
+        <v>163</v>
+      </c>
+      <c r="M28" s="6" cm="1">
+        <f t="array" ref="M28">MEDIAN(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
+        <v>142</v>
+      </c>
+      <c r="N28" s="6" cm="1">
+        <f t="array" ref="N28">MEDIAN(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
+        <v>115</v>
+      </c>
+      <c r="O28" s="10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42032</v>
       </c>
@@ -1260,8 +6869,43 @@
       <c r="C29">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=H25,$C$2:$C$359),3)</f>
+        <v>142.5</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I25,$C$2:$C$359),3)</f>
+        <v>144.5</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J25,$C$2:$C$359),3)</f>
+        <v>141.25</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K25,$C$2:$C$359),3)</f>
+        <v>149.25</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L25,$C$2:$C$359),3)</f>
+        <v>175.75</v>
+      </c>
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M25,$C$2:$C$359),3)</f>
+        <v>153</v>
+      </c>
+      <c r="N29" cm="1">
+        <f t="array" ref="N29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N25,$C$2:$C$359),3)</f>
+        <v>127.25</v>
+      </c>
+      <c r="O29" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42033</v>
       </c>
@@ -1271,8 +6915,43 @@
       <c r="C30">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">MAX(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
+        <v>184</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">MAX(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
+        <v>179</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">MAX(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
+        <v>163</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">MAX(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
+        <v>266</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">MAX(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
+        <v>264</v>
+      </c>
+      <c r="M30" cm="1">
+        <f t="array" ref="M30">MAX(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
+        <v>234</v>
+      </c>
+      <c r="N30" cm="1">
+        <f t="array" ref="N30">MAX(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
+        <v>191</v>
+      </c>
+      <c r="O30" s="9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42034</v>
       </c>
@@ -1282,8 +6961,44 @@
       <c r="C31">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <f>H29-H27</f>
+        <v>16.75</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:N31" si="0">I29-I27</f>
+        <v>24.75</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="N31">
+        <f>N29-N27</f>
+        <v>21.5</v>
+      </c>
+      <c r="O31" s="9">
+        <f>O29-O27</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42035</v>
       </c>
@@ -1293,8 +7008,44 @@
       <c r="C32">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="8" cm="1">
+        <f t="array" ref="H32">_xlfn.STDEV.S(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
+        <v>14.48732326763616</v>
+      </c>
+      <c r="I32" s="8" cm="1">
+        <f t="array" ref="I32">_xlfn.STDEV.S(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
+        <v>17.378440119742493</v>
+      </c>
+      <c r="J32" s="8" cm="1">
+        <f t="array" ref="J32">_xlfn.STDEV.S(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
+        <v>15.087127552913687</v>
+      </c>
+      <c r="K32" s="8" cm="1">
+        <f t="array" ref="K32">_xlfn.STDEV.S(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
+        <v>29.765777468354951</v>
+      </c>
+      <c r="L32" s="8" cm="1">
+        <f t="array" ref="L32">_xlfn.STDEV.S(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
+        <v>23.654278639586181</v>
+      </c>
+      <c r="M32" s="8" cm="1">
+        <f t="array" ref="M32">_xlfn.STDEV.S(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
+        <v>19.225452507879506</v>
+      </c>
+      <c r="N32" s="8" cm="1">
+        <f t="array" ref="N32">_xlfn.STDEV.S(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
+        <v>18.318974906608677</v>
+      </c>
+      <c r="O32" s="11">
+        <f>_xlfn.STDEV.S(C2:C359)</f>
+        <v>24.428669026957198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42036</v>
       </c>
@@ -1304,8 +7055,43 @@
       <c r="C33">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="8">
+        <f>AVERAGEIFS($C$2:$C$359,$B$2:$B$359,H25)</f>
+        <v>135.10416666666666</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" ref="I33:N33" si="1">AVERAGEIFS($C$2:$C$359,$B$2:$B$359,I25)</f>
+        <v>132.59615384615384</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="1"/>
+        <v>133.57692307692307</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="1"/>
+        <v>143.80769230769232</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="1"/>
+        <v>164.84</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="1"/>
+        <v>144.09615384615384</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="1"/>
+        <v>116.05769230769231</v>
+      </c>
+      <c r="O33" s="10">
+        <f>AVERAGE(C2:C359)</f>
+        <v>138.47486033519553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42037</v>
       </c>
@@ -1315,8 +7101,43 @@
       <c r="C34">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <f>H32/H33</f>
+        <v>0.10723076589769248</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:O34" si="2">I32/I33</f>
+        <v>0.13106292766158226</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.11294711096336191</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0.20698320785697477</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0.14349841445999867</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.13342099698515072</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.15784369430715015</v>
+      </c>
+      <c r="O34" s="9">
+        <f>O32/O33</f>
+        <v>0.17641230305504249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42038</v>
       </c>
@@ -1327,7 +7148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42039</v>
       </c>
@@ -1338,7 +7159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42040</v>
       </c>
@@ -1349,7 +7170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42041</v>
       </c>
@@ -1360,7 +7181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42042</v>
       </c>
@@ -1371,7 +7192,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42043</v>
       </c>
@@ -1382,7 +7203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42044</v>
       </c>
@@ -1393,7 +7214,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42045</v>
       </c>
@@ -1404,7 +7225,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42046</v>
       </c>
@@ -1415,7 +7236,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42047</v>
       </c>
@@ -1426,7 +7247,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42048</v>
       </c>
@@ -1437,7 +7258,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42049</v>
       </c>
@@ -1448,7 +7269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42050</v>
       </c>
@@ -1459,7 +7280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42051</v>
       </c>
@@ -1470,7 +7291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>42052</v>
       </c>
@@ -1481,7 +7302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42053</v>
       </c>
@@ -1492,7 +7313,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42054</v>
       </c>
@@ -1503,7 +7324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>42055</v>
       </c>
@@ -1514,7 +7335,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42056</v>
       </c>
@@ -1525,7 +7346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>42057</v>
       </c>
@@ -1536,7 +7357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>42058</v>
       </c>
@@ -1547,7 +7368,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>42059</v>
       </c>
@@ -1558,7 +7379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>42060</v>
       </c>
@@ -1569,7 +7390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>42061</v>
       </c>
@@ -1580,7 +7401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>42062</v>
       </c>
@@ -1591,7 +7412,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>42063</v>
       </c>
@@ -1602,7 +7423,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>42064</v>
       </c>
@@ -1613,7 +7434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42065</v>
       </c>
@@ -1624,7 +7445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42066</v>
       </c>
@@ -1635,7 +7456,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42067</v>
       </c>
@@ -1646,7 +7467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42068</v>
       </c>
@@ -1657,7 +7478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42069</v>
       </c>
@@ -1668,7 +7489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42070</v>
       </c>
@@ -1679,7 +7500,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42071</v>
       </c>
@@ -1690,7 +7511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42072</v>
       </c>
@@ -1701,7 +7522,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42073</v>
       </c>
@@ -1712,7 +7533,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42074</v>
       </c>
@@ -1723,7 +7544,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42075</v>
       </c>
@@ -1734,7 +7555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>42076</v>
       </c>
@@ -1745,7 +7566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>42077</v>
       </c>
@@ -1756,7 +7577,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>42078</v>
       </c>
@@ -1767,7 +7588,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42079</v>
       </c>
@@ -1778,7 +7599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>42080</v>
       </c>
@@ -1789,7 +7610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42081</v>
       </c>
@@ -1800,7 +7621,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>42082</v>
       </c>
@@ -1811,7 +7632,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>42083</v>
       </c>
@@ -1822,7 +7643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>42084</v>
       </c>
@@ -1833,7 +7654,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>42085</v>
       </c>
@@ -1844,7 +7665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>42086</v>
       </c>
@@ -1855,7 +7676,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>42087</v>
       </c>
@@ -1866,7 +7687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>42088</v>
       </c>
@@ -1877,7 +7698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42089</v>
       </c>
@@ -1888,7 +7709,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42090</v>
       </c>
@@ -1899,7 +7720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42091</v>
       </c>
@@ -1910,7 +7731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42092</v>
       </c>
@@ -1921,7 +7742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42093</v>
       </c>
@@ -1932,7 +7753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42094</v>
       </c>
@@ -1943,7 +7764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42095</v>
       </c>
@@ -1954,7 +7775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42096</v>
       </c>
@@ -1965,7 +7786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42097</v>
       </c>
@@ -1976,7 +7797,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42098</v>
       </c>
@@ -1987,7 +7808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42099</v>
       </c>
@@ -1998,7 +7819,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42100</v>
       </c>
@@ -2009,7 +7830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42101</v>
       </c>
@@ -2020,7 +7841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42102</v>
       </c>
@@ -2031,7 +7852,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42103</v>
       </c>
@@ -2042,7 +7863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42104</v>
       </c>
@@ -2053,7 +7874,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42105</v>
       </c>
@@ -2064,7 +7885,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42106</v>
       </c>
@@ -2075,7 +7896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42107</v>
       </c>
@@ -2086,7 +7907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42108</v>
       </c>
@@ -2097,7 +7918,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42109</v>
       </c>
@@ -2108,7 +7929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42110</v>
       </c>
@@ -2119,7 +7940,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42111</v>
       </c>
@@ -2130,7 +7951,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42112</v>
       </c>
@@ -2141,7 +7962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42113</v>
       </c>
@@ -2152,7 +7973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42114</v>
       </c>
@@ -2163,7 +7984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42115</v>
       </c>
@@ -2174,7 +7995,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42116</v>
       </c>
@@ -2185,7 +8006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42117</v>
       </c>
@@ -2196,7 +8017,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42118</v>
       </c>
@@ -2207,7 +8028,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42119</v>
       </c>
@@ -2218,7 +8039,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>42120</v>
       </c>
@@ -2229,7 +8050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42121</v>
       </c>
@@ -2240,7 +8061,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>42122</v>
       </c>
@@ -2251,7 +8072,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>42123</v>
       </c>
@@ -2262,7 +8083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42124</v>
       </c>
@@ -2273,7 +8094,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42125</v>
       </c>
@@ -2284,7 +8105,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>42126</v>
       </c>
@@ -2295,7 +8116,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42127</v>
       </c>
@@ -2306,7 +8127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>42128</v>
       </c>
@@ -2317,7 +8138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42129</v>
       </c>
@@ -2328,7 +8149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>42130</v>
       </c>
@@ -2339,7 +8160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42131</v>
       </c>
@@ -2350,7 +8171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42132</v>
       </c>
@@ -2361,7 +8182,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>42133</v>
       </c>
@@ -2372,7 +8193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42134</v>
       </c>
@@ -2383,7 +8204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>42135</v>
       </c>
@@ -2394,7 +8215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42136</v>
       </c>
@@ -2405,7 +8226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42137</v>
       </c>
@@ -2416,7 +8237,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>42138</v>
       </c>
@@ -2427,7 +8248,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42139</v>
       </c>
@@ -2438,7 +8259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>42140</v>
       </c>
@@ -2449,7 +8270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42141</v>
       </c>
@@ -2460,7 +8281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>42142</v>
       </c>
@@ -2471,7 +8292,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42143</v>
       </c>
@@ -2482,7 +8303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42144</v>
       </c>
@@ -2493,7 +8314,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42145</v>
       </c>
@@ -2504,7 +8325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42146</v>
       </c>
@@ -2515,7 +8336,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42147</v>
       </c>
@@ -2526,7 +8347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42148</v>
       </c>
@@ -2537,7 +8358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42149</v>
       </c>
@@ -2548,7 +8369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>42150</v>
       </c>
@@ -2559,7 +8380,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42151</v>
       </c>
@@ -2570,7 +8391,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42152</v>
       </c>
@@ -2581,7 +8402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42153</v>
       </c>
@@ -2592,7 +8413,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42154</v>
       </c>
@@ -2603,7 +8424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42155</v>
       </c>
@@ -2614,7 +8435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42156</v>
       </c>
@@ -2625,7 +8446,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>42157</v>
       </c>
@@ -2636,7 +8457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42158</v>
       </c>
@@ -2647,7 +8468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>42159</v>
       </c>
@@ -2658,7 +8479,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>42160</v>
       </c>
@@ -2669,7 +8490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>42161</v>
       </c>
@@ -2680,7 +8501,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>42162</v>
       </c>
@@ -2691,7 +8512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>42163</v>
       </c>
@@ -2702,7 +8523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>42164</v>
       </c>
@@ -2713,7 +8534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>42165</v>
       </c>
@@ -2724,7 +8545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>42166</v>
       </c>
@@ -2735,7 +8556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>42167</v>
       </c>
@@ -2746,7 +8567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>42168</v>
       </c>
@@ -2757,7 +8578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>42169</v>
       </c>
@@ -2768,7 +8589,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>42170</v>
       </c>
@@ -2779,7 +8600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>42171</v>
       </c>
@@ -2790,7 +8611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>42172</v>
       </c>
@@ -2801,7 +8622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>42173</v>
       </c>
@@ -2812,7 +8633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>42174</v>
       </c>
@@ -2823,7 +8644,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>42175</v>
       </c>
@@ -2834,7 +8655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>42176</v>
       </c>
@@ -2845,7 +8666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>42177</v>
       </c>
@@ -2856,7 +8677,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>42178</v>
       </c>
@@ -2867,7 +8688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>42179</v>
       </c>
@@ -2878,7 +8699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>42180</v>
       </c>
@@ -2889,7 +8710,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>42181</v>
       </c>
@@ -2900,7 +8721,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>42182</v>
       </c>
@@ -2911,7 +8732,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>42183</v>
       </c>
@@ -2922,7 +8743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>42184</v>
       </c>
@@ -2933,7 +8754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>42185</v>
       </c>
@@ -2944,7 +8765,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>42186</v>
       </c>
@@ -2955,7 +8776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42187</v>
       </c>
@@ -2966,7 +8787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>42188</v>
       </c>
@@ -2977,7 +8798,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42189</v>
       </c>
@@ -2988,7 +8809,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>42190</v>
       </c>
@@ -2999,7 +8820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42191</v>
       </c>
@@ -3010,7 +8831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>42192</v>
       </c>
@@ -3021,7 +8842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>42193</v>
       </c>
@@ -3032,7 +8853,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>42194</v>
       </c>
@@ -3043,7 +8864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>42195</v>
       </c>
@@ -3054,7 +8875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>42196</v>
       </c>
@@ -3065,7 +8886,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>42197</v>
       </c>
@@ -3076,7 +8897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>42198</v>
       </c>
@@ -3087,7 +8908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>42199</v>
       </c>
@@ -3098,7 +8919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>42200</v>
       </c>
@@ -3109,7 +8930,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>42201</v>
       </c>
@@ -3120,7 +8941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>42202</v>
       </c>
@@ -3131,7 +8952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>42203</v>
       </c>
@@ -3142,7 +8963,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>42204</v>
       </c>
@@ -3153,7 +8974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>42205</v>
       </c>
@@ -3164,7 +8985,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>42206</v>
       </c>
@@ -3175,7 +8996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>42207</v>
       </c>
@@ -3186,7 +9007,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>42208</v>
       </c>
@@ -3197,7 +9018,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>42209</v>
       </c>
@@ -3208,7 +9029,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>42210</v>
       </c>
@@ -3219,7 +9040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>42211</v>
       </c>
@@ -3230,7 +9051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>42212</v>
       </c>
@@ -3241,7 +9062,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>42213</v>
       </c>
@@ -3252,7 +9073,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>42214</v>
       </c>
@@ -3263,7 +9084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>42215</v>
       </c>
@@ -3274,7 +9095,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>42216</v>
       </c>
@@ -3285,7 +9106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>42217</v>
       </c>
@@ -3296,7 +9117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>42218</v>
       </c>
@@ -3307,7 +9128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>42219</v>
       </c>
@@ -3318,7 +9139,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>42220</v>
       </c>
@@ -3329,7 +9150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>42221</v>
       </c>
@@ -3340,7 +9161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>42222</v>
       </c>
@@ -3351,7 +9172,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>42223</v>
       </c>
@@ -3362,7 +9183,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>42224</v>
       </c>
@@ -3373,7 +9194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>42225</v>
       </c>
@@ -3384,7 +9205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>42226</v>
       </c>
@@ -3395,7 +9216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>42227</v>
       </c>
@@ -3406,7 +9227,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>42228</v>
       </c>
@@ -3417,7 +9238,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>42229</v>
       </c>
@@ -3428,7 +9249,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>42230</v>
       </c>
@@ -3439,7 +9260,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>42231</v>
       </c>
@@ -3450,7 +9271,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>42232</v>
       </c>
@@ -3461,7 +9282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>42233</v>
       </c>
@@ -3472,7 +9293,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>42234</v>
       </c>
@@ -3483,7 +9304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>42235</v>
       </c>
@@ -3494,7 +9315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>42236</v>
       </c>
@@ -3505,7 +9326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>42237</v>
       </c>
@@ -3516,7 +9337,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>42238</v>
       </c>
@@ -3527,7 +9348,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>42239</v>
       </c>
@@ -3538,7 +9359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>42240</v>
       </c>
@@ -3549,7 +9370,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>42241</v>
       </c>
@@ -3560,7 +9381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>42242</v>
       </c>
@@ -3571,7 +9392,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>42243</v>
       </c>
@@ -3582,7 +9403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>42244</v>
       </c>
@@ -3593,7 +9414,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>42245</v>
       </c>
@@ -3604,7 +9425,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>42246</v>
       </c>
@@ -3615,7 +9436,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>42247</v>
       </c>
@@ -3626,7 +9447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>42248</v>
       </c>
@@ -3637,7 +9458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>42249</v>
       </c>
@@ -3648,7 +9469,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>42250</v>
       </c>
@@ -3659,7 +9480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>42251</v>
       </c>
@@ -3670,7 +9491,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>42252</v>
       </c>
@@ -3681,7 +9502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>42253</v>
       </c>
@@ -3692,7 +9513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>42254</v>
       </c>
@@ -3703,7 +9524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>42255</v>
       </c>
@@ -3714,7 +9535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>42256</v>
       </c>
@@ -3725,7 +9546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>42257</v>
       </c>
@@ -3736,7 +9557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>42258</v>
       </c>
@@ -3747,7 +9568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>42259</v>
       </c>
@@ -3758,7 +9579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>42260</v>
       </c>
@@ -3769,7 +9590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>42261</v>
       </c>
@@ -3780,7 +9601,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>42262</v>
       </c>
@@ -3791,7 +9612,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>42263</v>
       </c>
@@ -3802,7 +9623,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>42264</v>
       </c>
@@ -3813,7 +9634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>42265</v>
       </c>
@@ -3824,7 +9645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>42266</v>
       </c>
@@ -3835,7 +9656,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>42267</v>
       </c>
@@ -3846,7 +9667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>42268</v>
       </c>
@@ -3857,7 +9678,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>42269</v>
       </c>
@@ -3868,7 +9689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>42270</v>
       </c>
@@ -3879,7 +9700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>42273</v>
       </c>
@@ -3890,7 +9711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>42274</v>
       </c>
@@ -3901,7 +9722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>42275</v>
       </c>
@@ -3912,7 +9733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>42276</v>
       </c>
@@ -3923,7 +9744,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>42277</v>
       </c>
@@ -3934,7 +9755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>42278</v>
       </c>
@@ -3945,7 +9766,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>42279</v>
       </c>
@@ -3956,7 +9777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>42280</v>
       </c>
@@ -3967,7 +9788,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>42281</v>
       </c>
@@ -3978,7 +9799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>42283</v>
       </c>
@@ -3989,7 +9810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>42284</v>
       </c>
@@ -4000,7 +9821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>42285</v>
       </c>
@@ -4011,7 +9832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>42286</v>
       </c>
@@ -4022,7 +9843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>42287</v>
       </c>
@@ -4033,7 +9854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>42288</v>
       </c>
@@ -4044,7 +9865,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>42290</v>
       </c>
@@ -4055,7 +9876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>42291</v>
       </c>
@@ -4066,7 +9887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>42292</v>
       </c>
@@ -4077,7 +9898,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>42293</v>
       </c>
@@ -4088,7 +9909,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>42294</v>
       </c>
@@ -4099,7 +9920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>42295</v>
       </c>
@@ -4110,7 +9931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>42297</v>
       </c>
@@ -4121,7 +9942,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>42298</v>
       </c>
@@ -4132,7 +9953,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>42299</v>
       </c>
@@ -4143,7 +9964,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>42300</v>
       </c>
@@ -4154,7 +9975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>42301</v>
       </c>
@@ -4165,7 +9986,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>42302</v>
       </c>
@@ -4176,7 +9997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>42304</v>
       </c>
@@ -4187,7 +10008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>42305</v>
       </c>
@@ -4198,7 +10019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>42306</v>
       </c>
@@ -4209,7 +10030,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>42307</v>
       </c>
@@ -4220,7 +10041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>42308</v>
       </c>
@@ -4231,7 +10052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>42309</v>
       </c>
@@ -4242,7 +10063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>42310</v>
       </c>
@@ -4253,7 +10074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>42311</v>
       </c>
@@ -4264,7 +10085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>42312</v>
       </c>
@@ -4275,7 +10096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>42313</v>
       </c>
@@ -4286,7 +10107,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>42314</v>
       </c>
@@ -4297,7 +10118,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>42315</v>
       </c>
@@ -4308,7 +10129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>42316</v>
       </c>
@@ -4319,7 +10140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>42317</v>
       </c>
@@ -4330,7 +10151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>42318</v>
       </c>
@@ -4341,7 +10162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>42319</v>
       </c>
@@ -4352,7 +10173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>42320</v>
       </c>
@@ -4363,7 +10184,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>42321</v>
       </c>
@@ -4374,7 +10195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>42322</v>
       </c>
@@ -4385,7 +10206,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>42323</v>
       </c>
@@ -4396,7 +10217,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>42324</v>
       </c>
@@ -4407,7 +10228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>42325</v>
       </c>
@@ -4418,7 +10239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>42326</v>
       </c>
@@ -4429,7 +10250,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>42327</v>
       </c>
@@ -4440,7 +10261,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>42328</v>
       </c>
@@ -4451,7 +10272,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>42329</v>
       </c>
@@ -4462,7 +10283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>42330</v>
       </c>
@@ -4473,7 +10294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>42331</v>
       </c>
@@ -4484,7 +10305,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>42332</v>
       </c>
@@ -4495,7 +10316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>42333</v>
       </c>
@@ -4506,7 +10327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>42334</v>
       </c>
@@ -4517,7 +10338,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>42335</v>
       </c>
@@ -4528,7 +10349,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>42336</v>
       </c>
@@ -4539,7 +10360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>42337</v>
       </c>
@@ -4550,7 +10371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>42338</v>
       </c>
@@ -4561,7 +10382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>42339</v>
       </c>
@@ -4572,7 +10393,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>42340</v>
       </c>
@@ -4583,7 +10404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>42341</v>
       </c>
@@ -4594,7 +10415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>42342</v>
       </c>
@@ -4605,7 +10426,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>42343</v>
       </c>
@@ -4616,7 +10437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>42344</v>
       </c>
@@ -4627,7 +10448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>42345</v>
       </c>
@@ -4638,7 +10459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>42346</v>
       </c>
@@ -4649,7 +10470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>42347</v>
       </c>
@@ -4660,7 +10481,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>42348</v>
       </c>
@@ -4671,7 +10492,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>42349</v>
       </c>
@@ -4682,7 +10503,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>42350</v>
       </c>
@@ -4693,7 +10514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>42351</v>
       </c>
@@ -4704,7 +10525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>42352</v>
       </c>
@@ -4715,7 +10536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>42353</v>
       </c>
@@ -4726,7 +10547,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>42354</v>
       </c>
@@ -4737,7 +10558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>42355</v>
       </c>
@@ -4748,7 +10569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>42356</v>
       </c>
@@ -4759,7 +10580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>42357</v>
       </c>
@@ -4770,7 +10591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>42358</v>
       </c>
@@ -4781,7 +10602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>42359</v>
       </c>
@@ -4792,7 +10613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>42360</v>
       </c>
@@ -4803,7 +10624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>42361</v>
       </c>
@@ -4814,7 +10635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>42362</v>
       </c>
@@ -4825,7 +10646,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>42364</v>
       </c>
@@ -4836,7 +10657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>42365</v>
       </c>
@@ -4847,7 +10668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>42366</v>
       </c>
@@ -4858,7 +10679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>42367</v>
       </c>
@@ -4869,7 +10690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>42368</v>
       </c>
@@ -4880,7 +10701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>42369</v>
       </c>
@@ -4894,5 +10715,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Pizza_Sales.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Pizza_Sales.xlsx
@@ -2,43 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82500B8D-AB88-EA45-A7D8-FDC5AEB2A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB57A07-ABCE-674A-89E9-DF7C4BB39D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orders!$A$1:$C$359</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">orders!$B$2:$B$359</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">orders!$B$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">orders!$B$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">orders!$C$2:$C$359</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">orders!$C$2:$C$359</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">orders!$B$2:$B$359</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">orders!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">orders!$B$2:$B$359</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">orders!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">orders!$C$2:$C$359</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">orders!$B$2:$B$359</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -210,7 +199,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -718,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,15 +715,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -780,7 +768,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -789,72 +777,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -887,7 +809,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Pizza_Sales.xlsx]orders!PivotTable5</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -954,6 +876,114 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1153,7 +1183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2405-0E48-BEC6-61C7E223F613}"/>
+              <c16:uniqueId val="{00000000-3892-F84C-906A-65969E972390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1441,13 +1471,125 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Pizza_Sales.xlsx]orders!PivotTable6</c:name>
-    <c:fmtId val="2"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1514,7 +1656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>orders!$R$2</c:f>
+              <c:f>orders!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1535,7 +1677,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>orders!$Q$3:$Q$20</c:f>
+              <c:f>orders!$E$13:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1594,7 +1736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>orders!$R$3:$R$20</c:f>
+              <c:f>orders!$F$13:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1654,7 +1796,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B49-984C-AEE0-85E1FA13E6A8}"/>
+              <c16:uniqueId val="{00000000-17CB-9E43-8994-E978DCF559A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1678,6 +1820,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pizza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Sold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1743,6 +1945,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Dasy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1850,10 +2107,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1863,7 +2120,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A0BF6424-BEFD-334C-93DC-31F7EA157907}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Pizzas</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2547,6 +2804,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3061,534 +3821,33 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28241FA4-0299-C280-C88A-5D701CB56F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7193B35A-8698-1047-B30A-5221ACED5B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3604,16 +3863,54 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122016</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408A46BD-8EEE-C444-9156-7D6145BF917A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3622,7 +3919,7 @@
             <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1958458-F9F3-670C-E92A-28FFCAECE9FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0058C7-5652-634E-80EB-AC5A31511718}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3634,7 +3931,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -3649,8 +3946,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5302250" y="6642100"/>
-              <a:ext cx="7512050" cy="4368800"/>
+              <a:off x="7569200" y="1435100"/>
+              <a:ext cx="7537450" cy="4406900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3682,38 +3979,74 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BBD5B5-EC22-1676-AFA0-887EE5569B37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD59A1AD-84CE-A095-4961-DDD7E62CD9BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="0"/>
+          <a:ext cx="6946900" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>We want</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> to know how many pizza sales to expect everyday, how much they typically vary, and if they fluctuate by day of the week.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5671,8 +6004,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA94F1EA-3629-C14A-ADEC-75CD8B7E2758}" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Day of Week">
-  <location ref="Q2:R20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA94F1EA-3629-C14A-ADEC-75CD8B7E2758}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Day of Week">
+  <location ref="E12:F30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0">
@@ -5781,12 +6114,21 @@
     <dataField name="Count of Pizzas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5809,7 +6151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96DB2E56-E88A-B649-828D-045E94B55372}" name="PivotTable5" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Day of Week">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96DB2E56-E88A-B649-828D-045E94B55372}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Day of Week">
   <location ref="E2:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField numFmtId="164" showAll="0"/>
@@ -5898,18 +6240,18 @@
     <dataField name="Average Pizza Sales " fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5920,6 +6262,15 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6238,10 +6589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:P359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6249,12 +6600,13 @@
     <col min="1" max="2" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6264,8 +6616,32 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -6281,14 +6657,43 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">MIN(IF($B$2:$B$359=I1,$C$2:$C$359))</f>
+        <v>102</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">MIN(IF($B$2:$B$359=J1,$C$2:$C$359))</f>
+        <v>80</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">MIN(IF($B$2:$B$359=K1,$C$2:$C$359))</f>
+        <v>82</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">MIN(IF($B$2:$B$359=L1,$C$2:$C$359))</f>
+        <v>113</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">MIN(IF($B$2:$B$359=M1,$C$2:$C$359))</f>
+        <v>125</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2">MIN(IF($B$2:$B$359=N1,$C$2:$C$359))</f>
+        <v>95</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">MIN(IF($B$2:$B$359=O1,$C$2:$C$359))</f>
+        <v>77</v>
+      </c>
+      <c r="P2" s="8" cm="1">
+        <f t="array" ref="P2:P6">_xlfn.QUARTILE.INC(C2:C359,_xlfn.SEQUENCE(5,,0,1))</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42006</v>
       </c>
@@ -6301,17 +6706,45 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>164.84</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I1,$C$2:$C$359),1)</f>
+        <v>125.75</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J1,$C$2:$C$359),1)</f>
+        <v>119.75</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K1,$C$2:$C$359),1)</f>
+        <v>125.5</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L1,$C$2:$C$359),1)</f>
+        <v>125.5</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M1,$C$2:$C$359),1)</f>
+        <v>152.25</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N1,$C$2:$C$359),1)</f>
+        <v>135.75</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">_xlfn.QUARTILE.INC(IF($B$2:$B$359=O1,$C$2:$C$359),1)</f>
+        <v>105.75</v>
+      </c>
+      <c r="P3" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42007</v>
       </c>
@@ -6324,17 +6757,45 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>144.09615384615384</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" cm="1">
+        <f t="array" ref="I4">MEDIAN(IF($B$2:$B$359=I1,$C$2:$C$359))</f>
+        <v>135.5</v>
+      </c>
+      <c r="J4" s="5" cm="1">
+        <f t="array" ref="J4">MEDIAN(IF($B$2:$B$359=J1,$C$2:$C$359))</f>
+        <v>131.5</v>
+      </c>
+      <c r="K4" s="5" cm="1">
+        <f t="array" ref="K4">MEDIAN(IF($B$2:$B$359=K1,$C$2:$C$359))</f>
+        <v>134.5</v>
+      </c>
+      <c r="L4" s="5" cm="1">
+        <f t="array" ref="L4">MEDIAN(IF($B$2:$B$359=L1,$C$2:$C$359))</f>
+        <v>137.5</v>
+      </c>
+      <c r="M4" s="5" cm="1">
+        <f t="array" ref="M4">MEDIAN(IF($B$2:$B$359=M1,$C$2:$C$359))</f>
+        <v>163</v>
+      </c>
+      <c r="N4" s="5" cm="1">
+        <f t="array" ref="N4">MEDIAN(IF($B$2:$B$359=N1,$C$2:$C$359))</f>
+        <v>142</v>
+      </c>
+      <c r="O4" s="5" cm="1">
+        <f t="array" ref="O4">MEDIAN(IF($B$2:$B$359=O1,$C$2:$C$359))</f>
+        <v>115</v>
+      </c>
+      <c r="P4" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42008</v>
       </c>
@@ -6347,17 +6808,45 @@
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>143.80769230769232</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I1,$C$2:$C$359),3)</f>
+        <v>142.5</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J1,$C$2:$C$359),3)</f>
+        <v>144.5</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" ref="K5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K1,$C$2:$C$359),3)</f>
+        <v>141.25</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L1,$C$2:$C$359),3)</f>
+        <v>149.25</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M1,$C$2:$C$359),3)</f>
+        <v>175.75</v>
+      </c>
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N1,$C$2:$C$359),3)</f>
+        <v>153</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">_xlfn.QUARTILE.INC(IF($B$2:$B$359=O1,$C$2:$C$359),3)</f>
+        <v>127.25</v>
+      </c>
+      <c r="P5" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42009</v>
       </c>
@@ -6370,17 +6859,45 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>135.10416666666666</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">MAX(IF($B$2:$B$359=I1,$C$2:$C$359))</f>
+        <v>184</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">MAX(IF($B$2:$B$359=J1,$C$2:$C$359))</f>
+        <v>179</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">MAX(IF($B$2:$B$359=K1,$C$2:$C$359))</f>
+        <v>163</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">MAX(IF($B$2:$B$359=L1,$C$2:$C$359))</f>
+        <v>266</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">MAX(IF($B$2:$B$359=M1,$C$2:$C$359))</f>
+        <v>264</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">MAX(IF($B$2:$B$359=N1,$C$2:$C$359))</f>
+        <v>234</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">MAX(IF($B$2:$B$359=O1,$C$2:$C$359))</f>
+        <v>191</v>
+      </c>
+      <c r="P6" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42010</v>
       </c>
@@ -6393,17 +6910,46 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>133.57692307692307</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f>I5-I3</f>
+        <v>16.75</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:N7" si="0">J5-J3</f>
+        <v>24.75</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="O7">
+        <f>O5-O3</f>
+        <v>21.5</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P5-P3</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42011</v>
       </c>
@@ -6416,17 +6962,46 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>132.59615384615384</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" cm="1">
+        <f t="array" ref="I8">_xlfn.STDEV.S(IF($B$2:$B$359=I1,$C$2:$C$359))</f>
+        <v>14.48732326763616</v>
+      </c>
+      <c r="J8" s="7" cm="1">
+        <f t="array" ref="J8">_xlfn.STDEV.S(IF($B$2:$B$359=J1,$C$2:$C$359))</f>
+        <v>17.378440119742493</v>
+      </c>
+      <c r="K8" s="7" cm="1">
+        <f t="array" ref="K8">_xlfn.STDEV.S(IF($B$2:$B$359=K1,$C$2:$C$359))</f>
+        <v>15.087127552913687</v>
+      </c>
+      <c r="L8" s="7" cm="1">
+        <f t="array" ref="L8">_xlfn.STDEV.S(IF($B$2:$B$359=L1,$C$2:$C$359))</f>
+        <v>29.765777468354951</v>
+      </c>
+      <c r="M8" s="7" cm="1">
+        <f t="array" ref="M8">_xlfn.STDEV.S(IF($B$2:$B$359=M1,$C$2:$C$359))</f>
+        <v>23.654278639586181</v>
+      </c>
+      <c r="N8" s="7" cm="1">
+        <f t="array" ref="N8">_xlfn.STDEV.S(IF($B$2:$B$359=N1,$C$2:$C$359))</f>
+        <v>19.225452507879506</v>
+      </c>
+      <c r="O8" s="7" cm="1">
+        <f t="array" ref="O8">_xlfn.STDEV.S(IF($B$2:$B$359=O1,$C$2:$C$359))</f>
+        <v>18.318974906608677</v>
+      </c>
+      <c r="P8" s="10">
+        <f>_xlfn.STDEV.S(C2:C359)</f>
+        <v>24.428669026957198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42012</v>
       </c>
@@ -6439,17 +7014,46 @@
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>116.05769230769231</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
+        <f>AVERAGEIFS($C$2:$C$359,$B$2:$B$359,I1)</f>
+        <v>135.10416666666666</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9:O9" si="1">AVERAGEIFS($C$2:$C$359,$B$2:$B$359,J1)</f>
+        <v>132.59615384615384</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>133.57692307692307</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>143.80769230769232</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>164.84</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>144.09615384615384</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>116.05769230769231</v>
+      </c>
+      <c r="P9" s="9">
+        <f>AVERAGE(C2:C359)</f>
+        <v>138.47486033519553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42013</v>
       </c>
@@ -6462,17 +7066,46 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>138.47486033519553</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f>I8/I9</f>
+        <v>0.10723076589769248</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:O10" si="2">J8/J9</f>
+        <v>0.13106292766158226</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0.11294711096336191</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.20698320785697477</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0.14349841445999867</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.13342099698515072</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0.15784369430715015</v>
+      </c>
+      <c r="P10" s="8">
+        <f>P8/P9</f>
+        <v>0.17641230305504249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42014</v>
       </c>
@@ -6482,14 +7115,8 @@
       <c r="C11">
         <v>146</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42015</v>
       </c>
@@ -6499,14 +7126,14 @@
       <c r="C12">
         <v>116</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42016</v>
       </c>
@@ -6516,14 +7143,14 @@
       <c r="C13">
         <v>119</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42017</v>
       </c>
@@ -6533,14 +7160,14 @@
       <c r="C14">
         <v>120</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42018</v>
       </c>
@@ -6550,14 +7177,14 @@
       <c r="C15">
         <v>150</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42019</v>
       </c>
@@ -6567,14 +7194,14 @@
       <c r="C16">
         <v>123</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42020</v>
       </c>
@@ -6584,14 +7211,14 @@
       <c r="C17">
         <v>158</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42021</v>
       </c>
@@ -6601,14 +7228,14 @@
       <c r="C18">
         <v>125</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42022</v>
       </c>
@@ -6618,14 +7245,14 @@
       <c r="C19">
         <v>122</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42023</v>
       </c>
@@ -6635,14 +7262,14 @@
       <c r="C20">
         <v>142</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="6">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42024</v>
       </c>
@@ -6652,8 +7279,14 @@
       <c r="C21">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42025</v>
       </c>
@@ -6663,8 +7296,14 @@
       <c r="C22">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42026</v>
       </c>
@@ -6674,8 +7313,14 @@
       <c r="C23">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42027</v>
       </c>
@@ -6685,8 +7330,14 @@
       <c r="C24">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42028</v>
       </c>
@@ -6696,32 +7347,14 @@
       <c r="C25">
         <v>142</v>
       </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42029</v>
       </c>
@@ -6731,43 +7364,14 @@
       <c r="C26">
         <v>102</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" cm="1">
-        <f t="array" ref="H26">MIN(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
-        <v>102</v>
-      </c>
-      <c r="I26" cm="1">
-        <f t="array" ref="I26">MIN(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
-        <v>80</v>
-      </c>
-      <c r="J26" cm="1">
-        <f t="array" ref="J26">MIN(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
-        <v>82</v>
-      </c>
-      <c r="K26" cm="1">
-        <f t="array" ref="K26">MIN(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
-        <v>113</v>
-      </c>
-      <c r="L26" cm="1">
-        <f t="array" ref="L26">MIN(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
-        <v>125</v>
-      </c>
-      <c r="M26" cm="1">
-        <f t="array" ref="M26">MIN(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
-        <v>95</v>
-      </c>
-      <c r="N26" cm="1">
-        <f t="array" ref="N26">MIN(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
-        <v>77</v>
-      </c>
-      <c r="O26" s="9" cm="1">
-        <f t="array" ref="O26:O30">_xlfn.QUARTILE.INC(C2:C359,_xlfn.SEQUENCE(5,,0,1))</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42030</v>
       </c>
@@ -6777,43 +7381,14 @@
       <c r="C27">
         <v>113</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" cm="1">
-        <f t="array" ref="H27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=H25,$C$2:$C$359),1)</f>
-        <v>125.75</v>
-      </c>
-      <c r="I27" cm="1">
-        <f t="array" ref="I27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I25,$C$2:$C$359),1)</f>
-        <v>119.75</v>
-      </c>
-      <c r="J27" cm="1">
-        <f t="array" ref="J27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J25,$C$2:$C$359),1)</f>
-        <v>125.5</v>
-      </c>
-      <c r="K27" cm="1">
-        <f t="array" ref="K27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K25,$C$2:$C$359),1)</f>
-        <v>125.5</v>
-      </c>
-      <c r="L27" cm="1">
-        <f t="array" ref="L27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L25,$C$2:$C$359),1)</f>
-        <v>152.25</v>
-      </c>
-      <c r="M27" cm="1">
-        <f t="array" ref="M27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M25,$C$2:$C$359),1)</f>
-        <v>135.75</v>
-      </c>
-      <c r="N27" cm="1">
-        <f t="array" ref="N27">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N25,$C$2:$C$359),1)</f>
-        <v>105.75</v>
-      </c>
-      <c r="O27" s="9">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42031</v>
       </c>
@@ -6823,43 +7398,14 @@
       <c r="C28">
         <v>151</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6" cm="1">
-        <f t="array" ref="H28">MEDIAN(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
-        <v>135.5</v>
-      </c>
-      <c r="I28" s="6" cm="1">
-        <f t="array" ref="I28">MEDIAN(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
-        <v>131.5</v>
-      </c>
-      <c r="J28" s="6" cm="1">
-        <f t="array" ref="J28">MEDIAN(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
-        <v>134.5</v>
-      </c>
-      <c r="K28" s="6" cm="1">
-        <f t="array" ref="K28">MEDIAN(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
-        <v>137.5</v>
-      </c>
-      <c r="L28" s="6" cm="1">
-        <f t="array" ref="L28">MEDIAN(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
-        <v>163</v>
-      </c>
-      <c r="M28" s="6" cm="1">
-        <f t="array" ref="M28">MEDIAN(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
-        <v>142</v>
-      </c>
-      <c r="N28" s="6" cm="1">
-        <f t="array" ref="N28">MEDIAN(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
-        <v>115</v>
-      </c>
-      <c r="O28" s="10">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42032</v>
       </c>
@@ -6869,43 +7415,14 @@
       <c r="C29">
         <v>118</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" cm="1">
-        <f t="array" ref="H29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=H25,$C$2:$C$359),3)</f>
-        <v>142.5</v>
-      </c>
-      <c r="I29" cm="1">
-        <f t="array" ref="I29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=I25,$C$2:$C$359),3)</f>
-        <v>144.5</v>
-      </c>
-      <c r="J29" cm="1">
-        <f t="array" ref="J29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=J25,$C$2:$C$359),3)</f>
-        <v>141.25</v>
-      </c>
-      <c r="K29" cm="1">
-        <f t="array" ref="K29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=K25,$C$2:$C$359),3)</f>
-        <v>149.25</v>
-      </c>
-      <c r="L29" cm="1">
-        <f t="array" ref="L29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=L25,$C$2:$C$359),3)</f>
-        <v>175.75</v>
-      </c>
-      <c r="M29" cm="1">
-        <f t="array" ref="M29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=M25,$C$2:$C$359),3)</f>
-        <v>153</v>
-      </c>
-      <c r="N29" cm="1">
-        <f t="array" ref="N29">_xlfn.QUARTILE.INC(IF($B$2:$B$359=N25,$C$2:$C$359),3)</f>
-        <v>127.25</v>
-      </c>
-      <c r="O29" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42033</v>
       </c>
@@ -6915,43 +7432,14 @@
       <c r="C30">
         <v>119</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" cm="1">
-        <f t="array" ref="H30">MAX(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
-        <v>184</v>
-      </c>
-      <c r="I30" cm="1">
-        <f t="array" ref="I30">MAX(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
-        <v>179</v>
-      </c>
-      <c r="J30" cm="1">
-        <f t="array" ref="J30">MAX(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
-        <v>163</v>
-      </c>
-      <c r="K30" cm="1">
-        <f t="array" ref="K30">MAX(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
-        <v>266</v>
-      </c>
-      <c r="L30" cm="1">
-        <f t="array" ref="L30">MAX(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
-        <v>264</v>
-      </c>
-      <c r="M30" cm="1">
-        <f t="array" ref="M30">MAX(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
-        <v>234</v>
-      </c>
-      <c r="N30" cm="1">
-        <f t="array" ref="N30">MAX(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
-        <v>191</v>
-      </c>
-      <c r="O30" s="9">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42034</v>
       </c>
@@ -6961,44 +7449,9 @@
       <c r="C31">
         <v>138</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <f>H29-H27</f>
-        <v>16.75</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ref="I31:N31" si="0">I29-I27</f>
-        <v>24.75</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>23.75</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>17.25</v>
-      </c>
-      <c r="N31">
-        <f>N29-N27</f>
-        <v>21.5</v>
-      </c>
-      <c r="O31" s="9">
-        <f>O29-O27</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42035</v>
       </c>
@@ -7008,44 +7461,9 @@
       <c r="C32">
         <v>145</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="8" cm="1">
-        <f t="array" ref="H32">_xlfn.STDEV.S(IF($B$2:$B$359=H25,$C$2:$C$359))</f>
-        <v>14.48732326763616</v>
-      </c>
-      <c r="I32" s="8" cm="1">
-        <f t="array" ref="I32">_xlfn.STDEV.S(IF($B$2:$B$359=I25,$C$2:$C$359))</f>
-        <v>17.378440119742493</v>
-      </c>
-      <c r="J32" s="8" cm="1">
-        <f t="array" ref="J32">_xlfn.STDEV.S(IF($B$2:$B$359=J25,$C$2:$C$359))</f>
-        <v>15.087127552913687</v>
-      </c>
-      <c r="K32" s="8" cm="1">
-        <f t="array" ref="K32">_xlfn.STDEV.S(IF($B$2:$B$359=K25,$C$2:$C$359))</f>
-        <v>29.765777468354951</v>
-      </c>
-      <c r="L32" s="8" cm="1">
-        <f t="array" ref="L32">_xlfn.STDEV.S(IF($B$2:$B$359=L25,$C$2:$C$359))</f>
-        <v>23.654278639586181</v>
-      </c>
-      <c r="M32" s="8" cm="1">
-        <f t="array" ref="M32">_xlfn.STDEV.S(IF($B$2:$B$359=M25,$C$2:$C$359))</f>
-        <v>19.225452507879506</v>
-      </c>
-      <c r="N32" s="8" cm="1">
-        <f t="array" ref="N32">_xlfn.STDEV.S(IF($B$2:$B$359=N25,$C$2:$C$359))</f>
-        <v>18.318974906608677</v>
-      </c>
-      <c r="O32" s="11">
-        <f>_xlfn.STDEV.S(C2:C359)</f>
-        <v>24.428669026957198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42036</v>
       </c>
@@ -7055,43 +7473,8 @@
       <c r="C33">
         <v>191</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="8">
-        <f>AVERAGEIFS($C$2:$C$359,$B$2:$B$359,H25)</f>
-        <v>135.10416666666666</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" ref="I33:N33" si="1">AVERAGEIFS($C$2:$C$359,$B$2:$B$359,I25)</f>
-        <v>132.59615384615384</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="1"/>
-        <v>133.57692307692307</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="1"/>
-        <v>143.80769230769232</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="1"/>
-        <v>164.84</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="1"/>
-        <v>144.09615384615384</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="1"/>
-        <v>116.05769230769231</v>
-      </c>
-      <c r="O33" s="10">
-        <f>AVERAGE(C2:C359)</f>
-        <v>138.47486033519553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42037</v>
       </c>
@@ -7101,43 +7484,8 @@
       <c r="C34">
         <v>145</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34">
-        <f>H32/H33</f>
-        <v>0.10723076589769248</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34:O34" si="2">I32/I33</f>
-        <v>0.13106292766158226</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>0.11294711096336191</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0.20698320785697477</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="2"/>
-        <v>0.14349841445999867</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>0.13342099698515072</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="2"/>
-        <v>0.15784369430715015</v>
-      </c>
-      <c r="O34" s="9">
-        <f>O32/O33</f>
-        <v>0.17641230305504249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42038</v>
       </c>
@@ -7148,7 +7496,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42039</v>
       </c>
@@ -7159,7 +7507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42040</v>
       </c>
@@ -7170,7 +7518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42041</v>
       </c>
@@ -7181,7 +7529,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42042</v>
       </c>
@@ -7192,7 +7540,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42043</v>
       </c>
@@ -7203,7 +7551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42044</v>
       </c>
@@ -7214,7 +7562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42045</v>
       </c>
@@ -7225,7 +7573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42046</v>
       </c>
@@ -7236,7 +7584,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42047</v>
       </c>
@@ -7247,7 +7595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42048</v>
       </c>
@@ -7258,7 +7606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42049</v>
       </c>
@@ -7269,7 +7617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42050</v>
       </c>
@@ -7280,7 +7628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42051</v>
       </c>
@@ -10715,6 +11063,20 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C35B08-498B-5244-84EC-3A235887BD10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>